--- a/data/model performance.xlsx
+++ b/data/model performance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miran\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miran\Downloads\dsan5550-final-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F05CAC-2E51-44CE-A99F-CB6180738913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3373397-A270-4158-B9EE-044835DCE6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,6 +75,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,9 +114,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -150,13 +156,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0559EC4F-6C94-4F2C-9105-ECB62BB3F085}" name="表2" displayName="表2" ref="A1:D8" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0559EC4F-6C94-4F2C-9105-ECB62BB3F085}" name="表2" displayName="表2" ref="A1:D8" totalsRowShown="0" dataDxfId="4">
   <autoFilter ref="A1:D8" xr:uid="{0559EC4F-6C94-4F2C-9105-ECB62BB3F085}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{40C2EF03-9D82-40C2-88F0-92C74E9253C2}" name="Model Name" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0C595EA2-BC3C-40D2-9A4B-5B04D6F800A8}" name="RMSE" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{EBC85F91-3121-4A83-8C0C-92E5387CC6E0}" name="MAE" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{47C823A1-17E5-49F5-B170-254A5D1E6CE9}" name="R-squared" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{40C2EF03-9D82-40C2-88F0-92C74E9253C2}" name="Model Name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{0C595EA2-BC3C-40D2-9A4B-5B04D6F800A8}" name="RMSE" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{EBC85F91-3121-4A83-8C0C-92E5387CC6E0}" name="MAE" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{47C823A1-17E5-49F5-B170-254A5D1E6CE9}" name="R-squared" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -428,7 +434,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -545,7 +551,7 @@
       <c r="C8" s="1">
         <v>0.24099999999999999</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.95</v>
       </c>
     </row>

--- a/data/model performance.xlsx
+++ b/data/model performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miran\Downloads\dsan5550-final-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3373397-A270-4158-B9EE-044835DCE6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602FAB4E-2504-4FA8-B0A0-A5931B1C3E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,10 +75,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +92,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -114,23 +122,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="176" formatCode="0.000_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -433,14 +449,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="11.77734375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -450,10 +467,10 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -464,10 +481,10 @@
       <c r="B2" s="1">
         <v>0.74199999999999999</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.57699999999999996</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>0.754</v>
       </c>
     </row>
@@ -478,10 +495,10 @@
       <c r="B3" s="1">
         <v>0.51400000000000001</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>0.41599999999999998</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>0.88200000000000001</v>
       </c>
     </row>
@@ -490,13 +507,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>0.112</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.99399999999999999</v>
+        <v>0.155</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.129</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.98899999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -504,13 +521,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="C5" s="1">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.99399999999999999</v>
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.98</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -520,10 +537,10 @@
       <c r="B6" s="1">
         <v>0.69099999999999995</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>0.58699999999999997</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>0.78600000000000003</v>
       </c>
     </row>
@@ -534,10 +551,10 @@
       <c r="B7" s="1">
         <v>0.58399999999999996</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>0.495</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <v>0.84699999999999998</v>
       </c>
     </row>
@@ -548,10 +565,10 @@
       <c r="B8" s="1">
         <v>0.33800000000000002</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>0.24099999999999999</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>0.95</v>
       </c>
     </row>

--- a/data/model performance.xlsx
+++ b/data/model performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miran\Downloads\dsan5550-final-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602FAB4E-2504-4FA8-B0A0-A5931B1C3E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFB3946-05A0-45A0-B64D-2C4E7B5B9002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12372" yWindow="3516" windowWidth="15360" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/data/model performance.xlsx
+++ b/data/model performance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miran\Downloads\dsan5550-final-project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miran\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFB3946-05A0-45A0-B64D-2C4E7B5B9002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE38C4AD-518D-4658-BAC1-608C81F13857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12372" yWindow="3516" windowWidth="15360" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>RMSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,15 +70,37 @@
     <t>Model Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Santa Barbara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Diego</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Santa Monica</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Francisco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Gradient Boosting Machine</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,6 +117,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -102,15 +125,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,35 +147,418 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="34">
     <dxf>
-      <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="0.000_ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -171,14 +583,5983 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Model Performance - Santa Barbara Station</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>SARIMA(1,1,1,24)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SARIMA(1,1,2,24)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gradient Boosting Machine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LSTM - Original Model</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LSTM - Adjust Complexity</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>LSTM - Hyperparameter Tuning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.74199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33800000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-192A-43F1-9334-9C09E2822F47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>SARIMA(1,1,1,24)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SARIMA(1,1,2,24)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gradient Boosting Machine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LSTM - Original Model</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LSTM - Adjust Complexity</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>LSTM - Hyperparameter Tuning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.57699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.495</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-192A-43F1-9334-9C09E2822F47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R-squared</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>SARIMA(1,1,1,24)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SARIMA(1,1,2,24)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gradient Boosting Machine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LSTM - Original Model</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LSTM - Adjust Complexity</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>LSTM - Hyperparameter Tuning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.754</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-192A-43F1-9334-9C09E2822F47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="616691056"/>
+        <c:axId val="616692496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="616691056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="616692496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="616692496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="616691056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Model Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> - San Diego Station</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$14:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SARIMA(1,1,1,24)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SARIMA(1,1,2,24)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gradient Boosting Machine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.71899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E5B-468F-8FDA-CB1A08CE025B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$14:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SARIMA(1,1,1,24)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SARIMA(1,1,2,24)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gradient Boosting Machine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1E5B-468F-8FDA-CB1A08CE025B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R-squared</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$14:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SARIMA(1,1,1,24)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SARIMA(1,1,2,24)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gradient Boosting Machine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$14:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1E5B-468F-8FDA-CB1A08CE025B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="803271712"/>
+        <c:axId val="803282272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="803271712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803282272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="803282272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803271712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Model</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> Performance - Los Angeles Station</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$22:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SARIMA(1,1,1,24)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SARIMA(1,1,2,24)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gradient Boosting Machine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.45400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F008-485A-A5F9-45020C65C21B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$22:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SARIMA(1,1,1,24)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SARIMA(1,1,2,24)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gradient Boosting Machine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F008-485A-A5F9-45020C65C21B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R-squared</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$22:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SARIMA(1,1,1,24)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SARIMA(1,1,2,24)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gradient Boosting Machine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$22:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.90300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98499999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F008-485A-A5F9-45020C65C21B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="803271232"/>
+        <c:axId val="803287072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="803271232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803287072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="803287072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803271232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Model Performance - Santa Monica Station</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$30:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SARIMA(1,1,1,24)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SARIMA(1,1,2,24)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gradient Boosting Machine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.38400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9DD7-476B-9E6D-7040D7B02CB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$30:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SARIMA(1,1,1,24)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SARIMA(1,1,2,24)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gradient Boosting Machine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.32900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9DD7-476B-9E6D-7040D7B02CB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R-squared</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$30:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SARIMA(1,1,1,24)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SARIMA(1,1,2,24)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gradient Boosting Machine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$30:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9DD7-476B-9E6D-7040D7B02CB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="803286592"/>
+        <c:axId val="803284192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="803286592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803284192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="803284192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803286592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Model Performance - San Francisco Station</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$38:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SARIMA(1,1,1,24)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SARIMA(1,1,2,24)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gradient Boosting Machine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$38:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-87E1-4A13-8EDD-4C9052AEB78E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$38:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SARIMA(1,1,1,24)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SARIMA(1,1,2,24)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gradient Boosting Machine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13200000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-87E1-4A13-8EDD-4C9052AEB78E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R-squared</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$38:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SARIMA(1,1,1,24)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SARIMA(1,1,2,24)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gradient Boosting Machine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$38:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.82599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-87E1-4A13-8EDD-4C9052AEB78E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="803278432"/>
+        <c:axId val="803285152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="803278432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803285152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="803285152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803278432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="219">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="219">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="219">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="219">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="219">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B04FDD1-C96B-4FB8-7F3B-13C2F8DFCA48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05F124C7-907C-E8E7-4AE6-CF96213EC854}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D131E8-D669-C7C5-5587-D9EBB8D5A718}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD2743C-0C56-DFF0-5803-D1CC9C189E94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D792700-A354-46A8-6C69-BF6E87FBCBDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0559EC4F-6C94-4F2C-9105-ECB62BB3F085}" name="表2" displayName="表2" ref="A1:D8" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="A1:D8" xr:uid="{0559EC4F-6C94-4F2C-9105-ECB62BB3F085}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0559EC4F-6C94-4F2C-9105-ECB62BB3F085}" name="表2" displayName="表2" ref="A2:D9" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{40C2EF03-9D82-40C2-88F0-92C74E9253C2}" name="Model Name" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{0C595EA2-BC3C-40D2-9A4B-5B04D6F800A8}" name="RMSE" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{EBC85F91-3121-4A83-8C0C-92E5387CC6E0}" name="MAE" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{47C823A1-17E5-49F5-B170-254A5D1E6CE9}" name="R-squared" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{40C2EF03-9D82-40C2-88F0-92C74E9253C2}" name="Model Name" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{0C595EA2-BC3C-40D2-9A4B-5B04D6F800A8}" name="RMSE" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{EBC85F91-3121-4A83-8C0C-92E5387CC6E0}" name="MAE" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{47C823A1-17E5-49F5-B170-254A5D1E6CE9}" name="R-squared" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A656D2AD-D2FF-4DC3-869C-23C6ABDDDC26}" name="表1" displayName="表1" ref="A13:D17" totalsRowShown="0" headerRowDxfId="21" dataDxfId="22" tableBorderDxfId="27">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9F3ABFB4-4818-4A50-9DC4-F45EAC7C02C0}" name="Model Name" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{1A591D97-CA60-4A82-A7F7-1B4A86AE7E69}" name="RMSE" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{B0B02E21-1551-4C33-A218-19421FC23051}" name="MAE" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{2BA6E712-EF43-43D9-A62E-94D1D9E33740}" name="R-squared" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7380EB7-B4EC-46CE-B6B2-816AE646A100}" name="表3" displayName="表3" ref="A21:D25" totalsRowShown="0" headerRowDxfId="14" dataDxfId="15" tableBorderDxfId="20">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{77835328-27EE-4007-8E37-3E7A89D00D8D}" name="Model Name" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{9E082D3C-1197-4AAF-B208-54C5DA9FF617}" name="RMSE" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{F6C47F08-A886-4EE0-9A8B-6E7837C1FBD7}" name="MAE" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{3A82CC47-4681-4F74-AE8F-F85945E0551D}" name="R-squared" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7689B979-B7FF-4C0C-9510-FE92B8550C38}" name="表4" displayName="表4" ref="A29:D33" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8" tableBorderDxfId="13">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{89949D78-8FC2-4495-92AE-B7388BEC6DA4}" name="Model Name" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{4D96161E-5B72-47C6-8B54-32313EBFEAD5}" name="RMSE" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{613E2555-F3B3-4E78-A59D-B3EDD1E3001D}" name="MAE" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{409A644F-58E7-47EA-832F-17977596B173}" name="R-squared" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BAE176CE-A0A9-4BA7-9C1C-BE93DA075BB8}" name="表5" displayName="表5" ref="A37:D41" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="6">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{FB44914E-4E63-4AF3-8A94-572779220D50}" name="Model Name" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{6231417C-6DB5-488B-A7A0-10E0C1416200}" name="RMSE" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{B7CCC802-A731-436D-97F6-682AF8BCAF85}" name="MAE" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{C90C0A29-1CDB-4A91-ADD9-46E3DF1C3940}" name="R-squared" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -447,136 +6828,446 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="U45" sqref="U45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="3"/>
-    <col min="4" max="4" width="11.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="12.5546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
+      <c r="A1" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.754</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.88200000000000001</v>
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.754</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>0.155</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.129</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.98899999999999999</v>
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.98</v>
+        <v>0.155</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.129</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.98899999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
-        <v>0.69099999999999995</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.78600000000000003</v>
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.98</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.495</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.84699999999999998</v>
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.78600000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.495</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>0.33800000000000002</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="1">
         <v>0.24099999999999999</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="1">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.108</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.124</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.379</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="C24" s="2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.314</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C32" s="2">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.378</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.82599999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.158</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.97799999999999998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="5">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>